--- a/result/鑫e贷授信-B款团队_完成情况.xlsx
+++ b/result/鑫e贷授信-B款团队_完成情况.xlsx
@@ -480,10 +480,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -532,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -544,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -610,10 +610,10 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -622,10 +622,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -740,10 +740,10 @@
         <v>45</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="H12">
-        <v>1.84</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -766,10 +766,10 @@
         <v>45</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D13">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="H13">
-        <v>1.11</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -792,10 +792,10 @@
         <v>45</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -804,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H14">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -818,10 +818,10 @@
         <v>40</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="H15">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -844,10 +844,10 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H16">
-        <v>0.88</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -870,10 +870,10 @@
         <v>40</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="H17">
-        <v>0.88</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -896,10 +896,10 @@
         <v>40</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H18">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/result/鑫e贷授信-B款团队_完成情况.xlsx
+++ b/result/鑫e贷授信-B款团队_完成情况.xlsx
@@ -480,7 +480,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -506,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -532,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -610,7 +610,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -662,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -740,10 +740,10 @@
         <v>45</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H12">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -766,10 +766,10 @@
         <v>45</v>
       </c>
       <c r="C13">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H13">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -792,10 +792,10 @@
         <v>45</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -804,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H14">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -818,22 +818,22 @@
         <v>40</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>64</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H15">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -844,10 +844,10 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H16">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -870,7 +870,7 @@
         <v>40</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>50</v>
@@ -896,7 +896,7 @@
         <v>40</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>65</v>

--- a/result/鑫e贷授信-B款团队_完成情况.xlsx
+++ b/result/鑫e贷授信-B款团队_完成情况.xlsx
@@ -740,10 +740,10 @@
         <v>45</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H12">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -766,10 +766,10 @@
         <v>45</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H13">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -844,10 +844,10 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H16">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -870,10 +870,10 @@
         <v>40</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H17">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -896,10 +896,10 @@
         <v>40</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H18">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>

--- a/result/鑫e贷授信-B款团队_完成情况.xlsx
+++ b/result/鑫e贷授信-B款团队_完成情况.xlsx
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -518,10 +518,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -544,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -622,10 +622,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -648,10 +648,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -700,10 +700,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -714,7 +714,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -740,10 +740,10 @@
         <v>45</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="H12">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -766,22 +766,22 @@
         <v>45</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="H13">
-        <v>2.58</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -792,10 +792,10 @@
         <v>45</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -804,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="H14">
-        <v>0.58</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -818,22 +818,22 @@
         <v>40</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>1.92</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -847,19 +847,19 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>1.25</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -870,22 +870,22 @@
         <v>40</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="H17">
-        <v>1.42</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -896,10 +896,10 @@
         <v>40</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="H18">
-        <v>1.65</v>
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>

--- a/result/鑫e贷授信-B款团队_完成情况.xlsx
+++ b/result/鑫e贷授信-B款团队_完成情况.xlsx
@@ -506,10 +506,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -518,10 +518,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -532,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -544,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -740,22 +740,22 @@
         <v>45</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H12">
-        <v>0.2</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -766,10 +766,10 @@
         <v>45</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H13">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -792,10 +792,10 @@
         <v>45</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -804,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H14">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -818,10 +818,10 @@
         <v>40</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H15">
-        <v>0.05</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -844,10 +844,10 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -870,10 +870,10 @@
         <v>40</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H17">
-        <v>0.18</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -896,10 +896,10 @@
         <v>40</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H18">
-        <v>0.18</v>
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
